--- a/appendix/mean_precision_micro.xlsx
+++ b/appendix/mean_precision_micro.xlsx
@@ -569,22 +569,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5590000000000001</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="D5" t="n">
-        <v>0.649</v>
+        <v>0.661</v>
       </c>
       <c r="E5" t="n">
-        <v>0.68</v>
+        <v>0.6889999999999999</v>
       </c>
       <c r="F5" t="n">
-        <v>0.712</v>
+        <v>0.722</v>
       </c>
       <c r="G5" t="n">
-        <v>0.605</v>
+        <v>0.621</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6</v>
+        <v>0.622</v>
       </c>
     </row>
     <row r="6">
@@ -618,29 +618,29 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>classical-best-embeddings</t>
+          <t>classical-best-embed</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5590000000000001</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="D7" t="n">
-        <v>0.66</v>
+        <v>0.661</v>
       </c>
       <c r="E7" t="n">
-        <v>0.68</v>
+        <v>0.6889999999999999</v>
       </c>
       <c r="F7" t="n">
-        <v>0.712</v>
+        <v>0.722</v>
       </c>
       <c r="G7" t="n">
         <v>0.621</v>
       </c>
       <c r="H7" t="n">
-        <v>0.617</v>
+        <v>0.622</v>
       </c>
     </row>
     <row r="8">
@@ -653,22 +653,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.584</v>
+        <v>0.582</v>
       </c>
       <c r="D8" t="n">
-        <v>0.71</v>
+        <v>0.718</v>
       </c>
       <c r="E8" t="n">
-        <v>0.746</v>
+        <v>0.745</v>
       </c>
       <c r="F8" t="n">
-        <v>0.769</v>
+        <v>0.763</v>
       </c>
       <c r="G8" t="n">
-        <v>0.6860000000000001</v>
+        <v>0.6909999999999999</v>
       </c>
       <c r="H8" t="n">
-        <v>0.6929999999999999</v>
+        <v>0.699</v>
       </c>
     </row>
     <row r="9">
@@ -678,25 +678,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.5590000000000001</v>
+        <v>0.528</v>
       </c>
       <c r="C9" t="n">
-        <v>0.634</v>
+        <v>0.622</v>
       </c>
       <c r="D9" t="n">
-        <v>0.718</v>
+        <v>0.725</v>
       </c>
       <c r="E9" t="n">
-        <v>0.742</v>
+        <v>0.746</v>
       </c>
       <c r="F9" t="n">
-        <v>0.763</v>
+        <v>0.759</v>
       </c>
       <c r="G9" t="n">
-        <v>0.671</v>
+        <v>0.672</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6820000000000001</v>
+        <v>0.677</v>
       </c>
     </row>
   </sheetData>
